--- a/Micro-X ADR Connector Lists.xlsx
+++ b/Micro-X ADR Connector Lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16180" tabRatio="608" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="608" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Log" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="1097">
   <si>
     <t>ADR Related Wirelist Change Log</t>
   </si>
@@ -2330,9 +2330,6 @@
     <t>AWG 24, tp, #10</t>
   </si>
   <si>
-    <t>AWG 24, tq, 1. 19. 20</t>
-  </si>
-  <si>
     <t>No pins to Chassis</t>
   </si>
   <si>
@@ -2819,27 +2816,6 @@
     <t>note: tp, n = twisted pair with wire to pin n, and tt, a, b = twisted triplet with wires to pin a &amp; b, tq, #n = twisted quad with wires to pins a, b, and c</t>
   </si>
   <si>
-    <t>Mini Blockhouse Power Supply for Magnet - only from Experimental Umbilical</t>
-  </si>
-  <si>
-    <t>Mini Blockhouse Power Return for Magnet - only from Experimental Umbilical</t>
-  </si>
-  <si>
-    <t>AWG 24, tq, 19, 20, 37</t>
-  </si>
-  <si>
-    <t>AWG 24, tq, 1, 20, 37</t>
-  </si>
-  <si>
-    <t>AWG 24, tq, 1. 19. 37</t>
-  </si>
-  <si>
-    <t>old: had twisted with 28 instead of 37</t>
-  </si>
-  <si>
-    <t>old: AWG 26, had twisted with 28 instead of 37</t>
-  </si>
-  <si>
     <t>V_Mag_Supply Monitor</t>
   </si>
   <si>
@@ -3354,6 +3330,24 @@
   </si>
   <si>
     <t>old; Timer 2 comm, ADR_MHK_P1 pin 22 or ADR_MAG_P1 pin 15 on other documents</t>
+  </si>
+  <si>
+    <t>old: +28 from P-00-05, older: AWG 26, had twisted with 28 instead of 37</t>
+  </si>
+  <si>
+    <t>old: 28_RET_in from P-00-05, older: had twisted with 28 instead of 37</t>
+  </si>
+  <si>
+    <t>old: EXP+28V_in from P-00-05, older: had twisted with 28 instead of 37</t>
+  </si>
+  <si>
+    <t>old: B/H_MAG_PWR from P-00-05, older: Mini Blockhouse Power Supply for Magnet - only from Experimental Umbilical</t>
+  </si>
+  <si>
+    <t>old: 28_RET from P-00-05, older: Mini Blockhouse Power Return for Magnet - only from Experimental Umbilical</t>
+  </si>
+  <si>
+    <t>Removed connections to P-00-05 that are now gone</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="653">
+  <cellStyleXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4585,8 +4579,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5115,30 +5113,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5181,8 +5155,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="653">
+  <cellStyles count="657">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5509,6 +5508,8 @@
     <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5835,6 +5836,8 @@
     <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6139,8 +6142,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6152,12 +6155,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1"/>
     <row r="3" spans="1:4" ht="14" thickBot="1">
@@ -6309,7 +6312,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6317,13 +6320,13 @@
         <v>40753</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6331,13 +6334,13 @@
         <v>40753</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6351,7 +6354,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6362,10 +6365,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6376,10 +6379,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6390,10 +6393,10 @@
         <v>74</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6404,10 +6407,10 @@
         <v>74</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6418,10 +6421,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -6429,13 +6432,13 @@
         <v>41046</v>
       </c>
       <c r="B22" s="120" t="s">
+        <v>902</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>903</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24">
@@ -6443,13 +6446,13 @@
         <v>41046</v>
       </c>
       <c r="B23" s="120" t="s">
+        <v>908</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6457,13 +6460,13 @@
         <v>41050</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6471,13 +6474,13 @@
         <v>41050</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6485,13 +6488,13 @@
         <v>41051</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6499,13 +6502,13 @@
         <v>41051</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6516,10 +6519,10 @@
         <v>70</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6527,13 +6530,13 @@
         <v>41052</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6544,10 +6547,10 @@
         <v>60</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24">
@@ -6555,13 +6558,13 @@
         <v>41052</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6572,10 +6575,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6586,10 +6589,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26">
@@ -6597,20 +6600,28 @@
         <v>41194</v>
       </c>
       <c r="B34" s="158" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D34" s="159" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="8">
+        <v>41288</v>
+      </c>
+      <c r="B35" s="120" t="s">
+        <v>894</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1096</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6646,7 +6657,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E14"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6662,7 +6673,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C1" s="113"/>
       <c r="D1" s="32"/>
@@ -6674,11 +6685,11 @@
         <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="32" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -6798,17 +6809,15 @@
       <c r="B11" s="24">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>57</v>
-      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="24">
         <v>35</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6818,14 +6827,12 @@
       <c r="B12" s="24">
         <v>4</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>65</v>
-      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="24">
         <v>1</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -6843,10 +6850,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6935,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -7283,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -7416,14 +7423,14 @@
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="195" t="s">
+      <c r="A47" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="195"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7447,8 +7454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E40"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7463,7 +7470,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C1" s="113"/>
       <c r="D1" s="32"/>
@@ -7475,11 +7482,11 @@
         <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -7528,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="21"/>
@@ -7612,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -7630,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -7648,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -7666,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -7688,23 +7695,23 @@
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:6" s="218" customFormat="1">
+      <c r="A16" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="46">
         <v>8</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="46">
         <v>8</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23" t="s">
@@ -7741,7 +7748,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7848,23 +7855,23 @@
       </c>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:6" s="218" customFormat="1">
+      <c r="A25" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="46">
         <v>17</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="46">
         <v>17</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23" t="s">
@@ -8091,7 +8098,7 @@
         <v>103</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8223,14 +8230,14 @@
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="195" t="s">
+      <c r="A47" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="195"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8254,8 +8261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8271,7 +8278,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C1" s="113"/>
       <c r="D1" s="32"/>
@@ -8283,11 +8290,11 @@
         <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -8336,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="21"/>
@@ -8350,7 +8357,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8361,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" thickBot="1">
@@ -8398,22 +8405,20 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>747</v>
+        <v>917</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="64">
-        <v>1</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>922</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="75"/>
       <c r="F11" s="119" t="s">
-        <v>926</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8602,7 +8607,7 @@
         <v>212</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F22" s="48"/>
     </row>
@@ -8620,7 +8625,7 @@
         <v>215</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F23" s="48" t="s">
         <v>238</v>
@@ -8640,7 +8645,7 @@
         <v>258</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>217</v>
@@ -8683,7 +8688,9 @@
       <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="45"/>
+      <c r="A27" s="45" t="s">
+        <v>917</v>
+      </c>
       <c r="B27" s="46">
         <v>17</v>
       </c>
@@ -8716,67 +8723,61 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>754</v>
+        <v>917</v>
       </c>
       <c r="B29" s="46">
         <v>19</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="81">
-        <v>6</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>923</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" s="48" t="s">
-        <v>925</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>747</v>
+        <v>917</v>
       </c>
       <c r="B30" s="46">
         <v>20</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="81">
-        <v>5</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>924</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="47"/>
       <c r="F30" s="48" t="s">
-        <v>925</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>755</v>
+        <v>917</v>
       </c>
       <c r="B31" s="46">
         <v>21</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="81">
-        <v>4</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>103</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="47"/>
       <c r="F31" s="48" t="s">
-        <v>920</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B32" s="46">
         <v>22</v>
@@ -8920,7 +8921,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B40" s="46">
         <v>30</v>
@@ -8948,7 +8949,7 @@
         <v>290</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>236</v>
@@ -8968,7 +8969,7 @@
         <v>260</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>215</v>
@@ -8988,7 +8989,7 @@
         <v>288</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>240</v>
@@ -9014,7 +9015,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B45" s="24">
         <v>35</v>
@@ -9030,41 +9031,39 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="22" t="s">
-        <v>753</v>
+        <v>917</v>
       </c>
       <c r="B46" s="46">
         <v>36</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="52">
-        <v>8</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>103</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="23"/>
       <c r="F46" s="25" t="s">
-        <v>921</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" thickBot="1">
       <c r="A47" s="26" t="s">
-        <v>754</v>
+        <v>917</v>
       </c>
       <c r="B47" s="28">
         <v>37</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="28">
-        <v>9</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F47" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="29" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="21"/>
@@ -9076,7 +9075,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="128" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B49" s="128"/>
       <c r="C49" s="128"/>
@@ -9107,7 +9106,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -9123,7 +9122,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C1" s="113"/>
       <c r="D1" s="32"/>
@@ -9135,21 +9134,21 @@
         <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="32" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C3" s="113"/>
       <c r="D3" s="32"/>
@@ -9192,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="21"/>
@@ -9206,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9217,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" thickBot="1">
@@ -9265,7 +9264,7 @@
       </c>
       <c r="E11" s="75"/>
       <c r="F11" s="119" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9285,7 +9284,7 @@
         <v>681</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9456,7 +9455,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -9474,7 +9473,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F23" s="25"/>
     </row>
@@ -9492,7 +9491,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F24" s="25"/>
     </row>
@@ -9534,7 +9533,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B27" s="24">
         <v>17</v>
@@ -9565,7 +9564,7 @@
         <v>673</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9581,7 +9580,7 @@
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="25" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9597,7 +9596,7 @@
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="25" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9613,12 +9612,12 @@
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="25" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="87" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B32" s="86">
         <v>22</v>
@@ -9762,7 +9761,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B40" s="24">
         <v>30</v>
@@ -9790,7 +9789,7 @@
         <v>31</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -9808,7 +9807,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F42" s="25"/>
     </row>
@@ -9826,7 +9825,7 @@
         <v>33</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -9850,7 +9849,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B45" s="24">
         <v>35</v>
@@ -9877,7 +9876,7 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="25" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" thickBot="1">
@@ -9893,7 +9892,7 @@
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="29" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10007,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -10057,7 +10056,7 @@
         <v>246</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F9" s="41"/>
     </row>
@@ -10075,7 +10074,7 @@
         <v>281</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F10" s="42"/>
     </row>
@@ -10129,7 +10128,7 @@
         <v>229</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -10147,7 +10146,7 @@
         <v>271</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -10411,7 +10410,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D29" s="24">
         <v>28</v>
@@ -10420,7 +10419,7 @@
         <v>317</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10431,7 +10430,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D30" s="24">
         <v>9</v>
@@ -10440,7 +10439,7 @@
         <v>317</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10451,7 +10450,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D31" s="24">
         <v>27</v>
@@ -10460,7 +10459,7 @@
         <v>317</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10507,14 +10506,14 @@
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -10621,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10632,7 +10631,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="13" thickBot="1">
@@ -10686,7 +10685,7 @@
         <v>103</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10985,7 +10984,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="67" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B25" s="24">
         <v>16</v>
@@ -10994,7 +10993,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E25" s="24">
         <v>24</v>
@@ -11003,7 +11002,7 @@
         <v>103</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -11105,7 +11104,7 @@
         <v>276</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G30" s="68"/>
     </row>
@@ -11126,7 +11125,7 @@
         <v>298</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G31" s="68"/>
     </row>
@@ -11169,7 +11168,7 @@
         <v>103</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11267,7 +11266,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E38" s="24">
         <v>26</v>
@@ -11276,7 +11275,7 @@
         <v>103</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -11290,7 +11289,7 @@
         <v>27</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E39" s="24">
         <v>25</v>
@@ -11299,7 +11298,7 @@
         <v>103</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11418,7 +11417,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E45" s="24">
         <v>6</v>
@@ -11427,7 +11426,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -11483,7 +11482,7 @@
         <v>36</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E48" s="24">
         <v>23</v>
@@ -11492,7 +11491,7 @@
         <v>103</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -11506,7 +11505,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E49" s="24">
         <v>5</v>
@@ -11515,7 +11514,7 @@
         <v>103</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -11730,7 +11729,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -11838,7 +11837,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -11850,7 +11849,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -11910,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D11" s="46">
         <v>10</v>
@@ -11919,7 +11918,7 @@
         <v>103</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11930,7 +11929,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D12" s="46">
         <v>30</v>
@@ -11939,7 +11938,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11950,7 +11949,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D13" s="46">
         <v>13</v>
@@ -11959,12 +11958,12 @@
         <v>103</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B14" s="46">
         <v>5</v>
@@ -11975,7 +11974,7 @@
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="48" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12002,7 +12001,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D16" s="46">
         <v>33</v>
@@ -12011,7 +12010,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -12022,7 +12021,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D17" s="46">
         <v>16</v>
@@ -12031,7 +12030,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13" thickBot="1">
@@ -12606,7 +12605,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -12674,7 +12673,7 @@
         <v>248</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -12686,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" s="24">
         <v>10</v>
@@ -12695,7 +12694,7 @@
         <v>396</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12706,7 +12705,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D12" s="24">
         <v>8</v>
@@ -12715,7 +12714,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12726,7 +12725,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D13" s="24">
         <v>9</v>
@@ -12735,7 +12734,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12812,13 +12811,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B18" s="46">
         <v>10</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D18" s="81" t="s">
         <v>236</v>
@@ -12830,7 +12829,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B19" s="46">
         <v>11</v>
@@ -12848,13 +12847,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B20" s="46">
         <v>12</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D20" s="81" t="s">
         <v>233</v>
@@ -12920,7 +12919,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B24" s="46">
         <v>16</v>
@@ -13024,7 +13023,7 @@
         <v>300</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F29" s="48"/>
     </row>
@@ -13036,7 +13035,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D30" s="46">
         <v>29</v>
@@ -13045,7 +13044,7 @@
         <v>325</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -13056,7 +13055,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D31" s="46">
         <v>27</v>
@@ -13065,7 +13064,7 @@
         <v>103</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -13076,7 +13075,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D32" s="46">
         <v>28</v>
@@ -13085,7 +13084,7 @@
         <v>103</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -13162,19 +13161,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B37" s="46">
         <v>29</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D37" s="81" t="s">
         <v>273</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F37" s="48"/>
     </row>
@@ -13192,25 +13191,25 @@
         <v>26</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="45" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B39" s="46">
         <v>31</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D39" s="81" t="s">
         <v>266</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F39" s="48"/>
     </row>
@@ -13234,7 +13233,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B41" s="46">
         <v>33</v>
@@ -13246,7 +13245,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F41" s="48"/>
     </row>
@@ -13264,7 +13263,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F42" s="25"/>
     </row>
@@ -13276,7 +13275,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D43" s="24">
         <v>3</v>
@@ -13285,7 +13284,7 @@
         <v>103</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -13296,7 +13295,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D44" s="24">
         <v>5</v>
@@ -13305,7 +13304,7 @@
         <v>103</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13" thickBot="1">
@@ -13316,7 +13315,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D45" s="28">
         <v>7</v>
@@ -13325,18 +13324,18 @@
         <v>103</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="195" t="s">
+      <c r="A47" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="195"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -13454,7 +13453,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -13870,7 +13869,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B30" s="24">
         <v>22</v>
@@ -13885,7 +13884,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -13924,7 +13923,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B33" s="24">
         <v>25</v>
@@ -14020,7 +14019,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D38" s="24">
         <v>34</v>
@@ -14029,7 +14028,7 @@
         <v>103</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -14040,7 +14039,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D39" s="24">
         <v>17</v>
@@ -14049,7 +14048,7 @@
         <v>103</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -14060,7 +14059,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D40" s="24">
         <v>2</v>
@@ -14069,7 +14068,7 @@
         <v>103</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -14080,7 +14079,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D41" s="24">
         <v>11</v>
@@ -14089,7 +14088,7 @@
         <v>103</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -14100,7 +14099,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D42" s="24">
         <v>31</v>
@@ -14109,7 +14108,7 @@
         <v>103</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -14120,7 +14119,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D43" s="24">
         <v>14</v>
@@ -14129,7 +14128,7 @@
         <v>103</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -14140,7 +14139,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D44" s="46">
         <v>18</v>
@@ -14149,12 +14148,12 @@
         <v>103</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13" thickBot="1">
       <c r="A45" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B45" s="28">
         <v>37</v>
@@ -14179,24 +14178,24 @@
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="212" t="s">
         <v>444</v>
       </c>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
+      <c r="B47" s="212"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="212"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="212"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -14995,7 +14994,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -15413,7 +15412,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D30" s="52">
         <v>16</v>
@@ -15422,7 +15421,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -15467,7 +15466,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D33" s="52">
         <v>15</v>
@@ -15476,7 +15475,7 @@
         <v>103</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -15487,7 +15486,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D34" s="24">
         <v>34</v>
@@ -15496,7 +15495,7 @@
         <v>103</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -15716,12 +15715,12 @@
       <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="197"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="197"/>
+      <c r="A49" s="213"/>
+      <c r="B49" s="213"/>
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="213"/>
+      <c r="F49" s="213"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15835,7 +15834,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -15879,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D9" s="19">
         <v>18</v>
@@ -15888,7 +15887,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="119" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -15899,7 +15898,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D10" s="24">
         <v>36</v>
@@ -15908,7 +15907,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -15919,7 +15918,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D11" s="24">
         <v>22</v>
@@ -15928,7 +15927,7 @@
         <v>103</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -15939,7 +15938,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D12" s="24">
         <v>24</v>
@@ -15948,7 +15947,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -15959,7 +15958,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D13" s="24">
         <v>26</v>
@@ -15968,7 +15967,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16551,14 +16550,14 @@
       <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="195" t="s">
+      <c r="A47" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="195"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -16674,12 +16673,12 @@
       <c r="B6" s="138">
         <v>2</v>
       </c>
-      <c r="C6" s="198" t="s">
-        <v>854</v>
-      </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
+      <c r="C6" s="214" t="s">
+        <v>853</v>
+      </c>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="35">
@@ -16689,7 +16688,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" thickBot="1">
@@ -16903,7 +16902,7 @@
         <v>526</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16923,7 +16922,7 @@
         <v>525</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17069,7 +17068,7 @@
         <v>611</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -17126,7 +17125,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B34" s="46">
         <v>23</v>
@@ -17138,13 +17137,13 @@
         <v>38</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B35" s="46">
         <v>24</v>
@@ -17156,13 +17155,13 @@
         <v>39</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B36" s="46">
         <v>25</v>
@@ -17174,13 +17173,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B37" s="46">
         <v>26</v>
@@ -17192,7 +17191,7 @@
         <v>41</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F37" s="25"/>
     </row>
@@ -17407,7 +17406,7 @@
         <v>682</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17805,7 +17804,7 @@
         <v>566</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -17843,7 +17842,7 @@
         <v>646</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -18043,7 +18042,7 @@
         <v>589</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -18220,8 +18219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:E91"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -18305,12 +18304,12 @@
       <c r="B7" s="110">
         <v>3</v>
       </c>
-      <c r="C7" s="200" t="s">
-        <v>854</v>
-      </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
+      <c r="C7" s="216" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
     </row>
     <row r="11" spans="1:6" ht="13" thickBot="1">
       <c r="A11" s="31"/>
@@ -18489,7 +18488,7 @@
         <v>625</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -18505,7 +18504,7 @@
         <v>624</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -18940,7 +18939,7 @@
       <c r="C50" s="47"/>
       <c r="D50" s="46"/>
       <c r="E50" s="47" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -19714,7 +19713,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -19726,7 +19725,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F7" s="114"/>
     </row>
@@ -19738,7 +19737,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" thickBot="1">
@@ -19844,7 +19843,7 @@
         <v>665</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -20437,7 +20436,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B49" s="24">
         <v>38</v>
@@ -20449,13 +20448,13 @@
         <v>23</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B50" s="24">
         <v>39</v>
@@ -20473,7 +20472,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B51" s="24">
         <v>40</v>
@@ -20491,7 +20490,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B52" s="24">
         <v>41</v>
@@ -20503,7 +20502,7 @@
         <v>26</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F52" s="25"/>
     </row>
@@ -24563,7 +24562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -24598,15 +24597,15 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -24646,7 +24645,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -24657,7 +24656,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -24668,7 +24667,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -24679,7 +24678,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -24690,7 +24689,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -24701,7 +24700,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13" thickBot="1">
@@ -24750,10 +24749,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F17" s="149" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -24764,16 +24763,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D18" s="81">
         <v>2</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -24818,7 +24817,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D21" s="81">
         <v>5</v>
@@ -24827,7 +24826,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -24838,7 +24837,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D22" s="81">
         <v>6</v>
@@ -24847,7 +24846,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="84" customFormat="1">
@@ -24876,7 +24875,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D24" s="81">
         <v>8</v>
@@ -24885,7 +24884,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -24896,7 +24895,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D25" s="81">
         <v>9</v>
@@ -24905,7 +24904,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -24916,7 +24915,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D26" s="81">
         <v>10</v>
@@ -24925,7 +24924,7 @@
         <v>750</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -24952,16 +24951,16 @@
         <v>12</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D28" s="46">
         <v>12</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -24972,16 +24971,16 @@
         <v>13</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D29" s="46">
         <v>13</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -24992,16 +24991,16 @@
         <v>14</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D30" s="46">
         <v>14</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -25012,7 +25011,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D31" s="81">
         <v>15</v>
@@ -25021,7 +25020,7 @@
         <v>103</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -25032,7 +25031,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D32" s="81">
         <v>16</v>
@@ -25041,7 +25040,7 @@
         <v>103</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -25070,16 +25069,16 @@
         <v>18</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D34" s="81">
         <v>18</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -25096,10 +25095,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="84" customFormat="1">
@@ -25116,10 +25115,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -25136,21 +25135,21 @@
         <v>4</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="45" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B38" s="46">
         <v>22</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D38" s="81">
         <v>22</v>
@@ -25168,7 +25167,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D39" s="81">
         <v>23</v>
@@ -25177,7 +25176,7 @@
         <v>103</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -25188,7 +25187,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D40" s="81">
         <v>24</v>
@@ -25197,7 +25196,7 @@
         <v>103</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -25208,7 +25207,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D41" s="81">
         <v>25</v>
@@ -25217,7 +25216,7 @@
         <v>103</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -25228,7 +25227,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D42" s="46">
         <v>26</v>
@@ -25237,7 +25236,7 @@
         <v>103</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -25248,7 +25247,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D43" s="81">
         <v>27</v>
@@ -25257,7 +25256,7 @@
         <v>103</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -25268,7 +25267,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D44" s="81">
         <v>28</v>
@@ -25277,7 +25276,7 @@
         <v>103</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -25288,7 +25287,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D45" s="81">
         <v>29</v>
@@ -25297,7 +25296,7 @@
         <v>756</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -25324,16 +25323,16 @@
         <v>31</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D47" s="46">
         <v>31</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -25344,16 +25343,16 @@
         <v>32</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D48" s="46">
         <v>32</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -25364,16 +25363,16 @@
         <v>33</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D49" s="46">
         <v>33</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -25384,7 +25383,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D50" s="81">
         <v>34</v>
@@ -25393,7 +25392,7 @@
         <v>103</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -25416,7 +25415,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="45" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B52" s="46">
         <v>36</v>
@@ -25428,10 +25427,10 @@
         <v>8</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13" thickBot="1">
@@ -25448,10 +25447,10 @@
         <v>9</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F53" s="151" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -25464,7 +25463,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B55" s="104"/>
       <c r="C55" s="104"/>
@@ -25473,7 +25472,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="103" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B56" s="103"/>
       <c r="C56" s="103"/>
@@ -25524,7 +25523,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E49"/>
+      <selection activeCell="A15" sqref="A15:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -25563,10 +25562,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -25606,7 +25605,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -25617,7 +25616,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25628,7 +25627,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="133" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13" thickBot="1">
@@ -25678,7 +25677,7 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -25696,7 +25695,7 @@
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -25707,16 +25706,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D15" s="46">
         <v>3</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -25727,16 +25726,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D16" s="46">
         <v>4</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -25747,16 +25746,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D17" s="46">
         <v>5</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -25767,16 +25766,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D18" s="46">
         <v>6</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -25787,7 +25786,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D19" s="46">
         <v>7</v>
@@ -25796,7 +25795,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25807,7 +25806,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D20" s="81">
         <v>8</v>
@@ -25816,7 +25815,7 @@
         <v>103</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -25827,7 +25826,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D21" s="46">
         <v>9</v>
@@ -25836,7 +25835,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -25847,7 +25846,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D22" s="46">
         <v>10</v>
@@ -25856,7 +25855,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="84" customFormat="1">
@@ -25867,7 +25866,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D23" s="46">
         <v>11</v>
@@ -25876,7 +25875,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="84" customFormat="1">
@@ -25894,7 +25893,7 @@
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -25905,7 +25904,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D25" s="46">
         <v>13</v>
@@ -25914,7 +25913,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -25925,7 +25924,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D26" s="46">
         <v>14</v>
@@ -25934,7 +25933,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25952,7 +25951,7 @@
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25963,7 +25962,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D28" s="46">
         <v>16</v>
@@ -25972,7 +25971,7 @@
         <v>103</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -25983,7 +25982,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D29" s="46">
         <v>17</v>
@@ -25992,7 +25991,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -26003,7 +26002,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D30" s="46">
         <v>18</v>
@@ -26012,7 +26011,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -26065,7 +26064,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D34" s="46">
         <v>22</v>
@@ -26074,7 +26073,7 @@
         <v>103</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -26085,7 +26084,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D35" s="81">
         <v>23</v>
@@ -26094,7 +26093,7 @@
         <v>103</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="84" customFormat="1">
@@ -26105,7 +26104,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D36" s="46">
         <v>24</v>
@@ -26114,7 +26113,7 @@
         <v>103</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -26125,7 +26124,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D37" s="81">
         <v>25</v>
@@ -26134,7 +26133,7 @@
         <v>103</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -26145,7 +26144,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D38" s="46">
         <v>26</v>
@@ -26154,7 +26153,7 @@
         <v>103</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -26165,7 +26164,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D39" s="46">
         <v>27</v>
@@ -26174,7 +26173,7 @@
         <v>103</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -26185,7 +26184,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D40" s="46">
         <v>28</v>
@@ -26194,7 +26193,7 @@
         <v>103</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -26212,7 +26211,7 @@
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -26223,7 +26222,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D42" s="46">
         <v>30</v>
@@ -26232,7 +26231,7 @@
         <v>103</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -26243,7 +26242,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D43" s="46">
         <v>31</v>
@@ -26252,7 +26251,7 @@
         <v>103</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -26270,7 +26269,7 @@
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -26281,7 +26280,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D45" s="46">
         <v>33</v>
@@ -26290,7 +26289,7 @@
         <v>103</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -26301,7 +26300,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D46" s="46">
         <v>34</v>
@@ -26310,7 +26309,7 @@
         <v>103</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -26328,7 +26327,7 @@
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -26339,7 +26338,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D48" s="46">
         <v>36</v>
@@ -26348,7 +26347,7 @@
         <v>103</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13" thickBot="1">
@@ -26432,7 +26431,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32"/>
@@ -26597,7 +26596,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -26704,14 +26703,14 @@
       <c r="F23" s="29"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="211" t="s">
         <v>697</v>
       </c>
-      <c r="B25" s="195"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -26770,7 +26769,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32"/>
@@ -26823,7 +26822,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -26941,7 +26940,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -27102,7 +27101,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -27119,11 +27118,11 @@
       <c r="O1" s="160"/>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="203" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B2" s="202" t="s">
-        <v>1094</v>
+      <c r="A2" s="195" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B2" s="194" t="s">
+        <v>1086</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -27142,11 +27141,11 @@
         <v>86</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="32" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -27162,10 +27161,10 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="161" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B4" s="162" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="162"/>
       <c r="D4" s="32"/>
@@ -27212,7 +27211,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="153" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="21"/>
@@ -27235,7 +27234,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="D7" s="153"/>
       <c r="E7" s="21"/>
@@ -27302,7 +27301,7 @@
     </row>
     <row r="10" spans="1:15" ht="15">
       <c r="A10" s="166" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="167">
         <v>1</v>
@@ -27327,7 +27326,7 @@
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="169" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B11" s="170">
         <v>2</v>
@@ -27352,7 +27351,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="166" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="167">
         <v>3</v>
@@ -27377,7 +27376,7 @@
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="169" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B13" s="170">
         <v>4</v>
@@ -27402,7 +27401,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B14" s="167">
         <v>5</v>
@@ -27423,7 +27422,7 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="169" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="B15" s="170">
         <v>6</v>
@@ -27448,7 +27447,7 @@
     </row>
     <row r="16" spans="1:15" ht="15">
       <c r="A16" s="166" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="B16" s="167">
         <v>7</v>
@@ -27473,7 +27472,7 @@
     </row>
     <row r="17" spans="1:15" ht="15">
       <c r="A17" s="169" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="B17" s="170">
         <v>8</v>
@@ -27498,7 +27497,7 @@
     </row>
     <row r="18" spans="1:15" ht="15">
       <c r="A18" s="166" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="167">
         <v>9</v>
@@ -27523,7 +27522,7 @@
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B19" s="170">
         <v>10</v>
@@ -27544,7 +27543,7 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B20" s="167">
         <v>11</v>
@@ -27565,7 +27564,7 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="169" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="B21" s="170">
         <v>12</v>
@@ -27590,7 +27589,7 @@
     </row>
     <row r="22" spans="1:15" ht="15">
       <c r="A22" s="175" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B22" s="176">
         <v>13</v>
@@ -27615,7 +27614,7 @@
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" s="169" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B23" s="170">
         <v>14</v>
@@ -27640,7 +27639,7 @@
     </row>
     <row r="24" spans="1:15" ht="15">
       <c r="A24" s="166" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="B24" s="167">
         <v>15</v>
@@ -27665,7 +27664,7 @@
     </row>
     <row r="25" spans="1:15" ht="15">
       <c r="A25" s="169" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="170">
         <v>16</v>
@@ -27690,7 +27689,7 @@
     </row>
     <row r="26" spans="1:15" ht="15">
       <c r="A26" s="179" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="180">
         <v>17</v>
@@ -27703,7 +27702,7 @@
       </c>
       <c r="E26" s="180"/>
       <c r="F26" s="181" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="G26" s="160"/>
       <c r="H26" s="160"/>
@@ -27717,7 +27716,7 @@
     </row>
     <row r="27" spans="1:15" ht="15">
       <c r="A27" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B27" s="170">
         <v>18</v>
@@ -27738,7 +27737,7 @@
     </row>
     <row r="28" spans="1:15" ht="15">
       <c r="A28" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B28" s="167">
         <v>19</v>
@@ -27759,7 +27758,7 @@
     </row>
     <row r="29" spans="1:15" ht="15">
       <c r="A29" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B29" s="170">
         <v>20</v>
@@ -27780,7 +27779,7 @@
     </row>
     <row r="30" spans="1:15" ht="15">
       <c r="A30" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B30" s="167">
         <v>21</v>
@@ -27801,7 +27800,7 @@
     </row>
     <row r="31" spans="1:15" ht="15">
       <c r="A31" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B31" s="170">
         <v>22</v>
@@ -27822,7 +27821,7 @@
     </row>
     <row r="32" spans="1:15" ht="15">
       <c r="A32" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B32" s="167">
         <v>23</v>
@@ -27843,7 +27842,7 @@
     </row>
     <row r="33" spans="1:15" ht="15">
       <c r="A33" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B33" s="170">
         <v>24</v>
@@ -27864,7 +27863,7 @@
     </row>
     <row r="34" spans="1:15" ht="15">
       <c r="A34" s="166" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B34" s="167">
         <v>25</v>
@@ -27889,7 +27888,7 @@
     </row>
     <row r="35" spans="1:15" ht="15">
       <c r="A35" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B35" s="170">
         <v>26</v>
@@ -27910,7 +27909,7 @@
     </row>
     <row r="36" spans="1:15" ht="15">
       <c r="A36" s="175" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="B36" s="176">
         <v>27</v>
@@ -27935,7 +27934,7 @@
     </row>
     <row r="37" spans="1:15" ht="15">
       <c r="A37" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B37" s="170">
         <v>28</v>
@@ -27956,7 +27955,7 @@
     </row>
     <row r="38" spans="1:15" ht="15">
       <c r="A38" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B38" s="167">
         <v>29</v>
@@ -27977,7 +27976,7 @@
     </row>
     <row r="39" spans="1:15" ht="15">
       <c r="A39" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B39" s="170">
         <v>30</v>
@@ -27998,7 +27997,7 @@
     </row>
     <row r="40" spans="1:15" ht="15">
       <c r="A40" s="166" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B40" s="167">
         <v>31</v>
@@ -28023,7 +28022,7 @@
     </row>
     <row r="41" spans="1:15" ht="15">
       <c r="A41" s="169" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B41" s="170">
         <v>32</v>
@@ -28048,7 +28047,7 @@
     </row>
     <row r="42" spans="1:15" ht="15">
       <c r="A42" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B42" s="167">
         <v>33</v>
@@ -28069,7 +28068,7 @@
     </row>
     <row r="43" spans="1:15" ht="15">
       <c r="A43" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B43" s="170">
         <v>34</v>
@@ -28090,7 +28089,7 @@
     </row>
     <row r="44" spans="1:15" ht="15">
       <c r="A44" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B44" s="167">
         <v>35</v>
@@ -28111,7 +28110,7 @@
     </row>
     <row r="45" spans="1:15" ht="15">
       <c r="A45" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B45" s="170">
         <v>36</v>
@@ -28132,7 +28131,7 @@
     </row>
     <row r="46" spans="1:15" ht="15">
       <c r="A46" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B46" s="167">
         <v>37</v>
@@ -28153,7 +28152,7 @@
     </row>
     <row r="47" spans="1:15" ht="15">
       <c r="A47" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B47" s="170">
         <v>38</v>
@@ -28174,7 +28173,7 @@
     </row>
     <row r="48" spans="1:15" ht="15">
       <c r="A48" s="182" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B48" s="167">
         <v>39</v>
@@ -28199,7 +28198,7 @@
     </row>
     <row r="49" spans="1:15" ht="30">
       <c r="A49" s="183" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="B49" s="184">
         <v>40</v>
@@ -28212,7 +28211,7 @@
       </c>
       <c r="E49" s="186"/>
       <c r="F49" s="187" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="G49" s="160"/>
       <c r="H49" s="160"/>
@@ -28226,7 +28225,7 @@
     </row>
     <row r="50" spans="1:15" ht="15">
       <c r="A50" s="166" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B50" s="167">
         <v>41</v>
@@ -28251,7 +28250,7 @@
     </row>
     <row r="51" spans="1:15" ht="15">
       <c r="A51" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B51" s="170">
         <v>42</v>
@@ -28272,7 +28271,7 @@
     </row>
     <row r="52" spans="1:15" ht="15">
       <c r="A52" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B52" s="167">
         <v>43</v>
@@ -28293,7 +28292,7 @@
     </row>
     <row r="53" spans="1:15" ht="15">
       <c r="A53" s="169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B53" s="170">
         <v>44</v>
@@ -28314,7 +28313,7 @@
     </row>
     <row r="54" spans="1:15" ht="15">
       <c r="A54" s="166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B54" s="167">
         <v>45</v>
@@ -28335,7 +28334,7 @@
     </row>
     <row r="55" spans="1:15" ht="15">
       <c r="A55" s="188" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="B55" s="189">
         <v>46</v>
@@ -28360,7 +28359,7 @@
     </row>
     <row r="56" spans="1:15" ht="15">
       <c r="A56" s="166" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="B56" s="167">
         <v>47</v>
@@ -28385,7 +28384,7 @@
     </row>
     <row r="57" spans="1:15" ht="15">
       <c r="A57" s="169" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B57" s="170">
         <v>48</v>
@@ -28410,7 +28409,7 @@
     </row>
     <row r="58" spans="1:15" ht="15">
       <c r="A58" s="166" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="B58" s="167">
         <v>49</v>
@@ -28435,7 +28434,7 @@
     </row>
     <row r="59" spans="1:15" ht="15">
       <c r="A59" s="188" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B59" s="189">
         <v>50</v>
@@ -28444,7 +28443,7 @@
       <c r="D59" s="189"/>
       <c r="E59" s="192"/>
       <c r="F59" s="193" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="G59" s="160"/>
       <c r="H59" s="160"/>
@@ -28829,65 +28828,65 @@
         <v>84</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="32"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="32" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="32"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="161" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C3" s="162"/>
       <c r="D3" s="32"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="16" t="s">
@@ -28903,14 +28902,14 @@
       <c r="E4" s="155"/>
       <c r="F4" s="21"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="35">
@@ -28920,34 +28919,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="155" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D5" s="155"/>
       <c r="E5" s="155"/>
       <c r="F5" s="21"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="155"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
       <c r="A7" s="156"/>
@@ -28961,14 +28960,14 @@
       <c r="E7" s="156"/>
       <c r="F7" s="156"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="163" t="s">
@@ -28990,7 +28989,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="204"/>
+      <c r="H8" s="196"/>
       <c r="I8" s="155"/>
       <c r="J8" s="156"/>
       <c r="K8" s="155"/>
@@ -29000,22 +28999,22 @@
       <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="15">
-      <c r="A9" s="205" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B9" s="206">
+      <c r="A9" s="197" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B9" s="198">
         <v>1</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="206">
+      <c r="D9" s="198">
         <v>1</v>
       </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="204"/>
+      <c r="H9" s="196"/>
       <c r="I9" s="155"/>
       <c r="J9" s="156"/>
       <c r="K9" s="155"/>
@@ -29025,22 +29024,22 @@
       <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="208" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B10" s="209">
+      <c r="A10" s="200" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B10" s="201">
         <v>2</v>
       </c>
-      <c r="C10" s="209" t="s">
+      <c r="C10" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="209">
+      <c r="D10" s="201">
         <v>2</v>
       </c>
-      <c r="E10" s="209"/>
-      <c r="F10" s="210"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="204"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="174"/>
       <c r="J10" s="174"/>
       <c r="K10" s="174"/>
@@ -29050,22 +29049,22 @@
       <c r="O10" s="174"/>
     </row>
     <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="205" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B11" s="206">
+      <c r="A11" s="197" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B11" s="198">
         <v>3</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="206">
+      <c r="D11" s="198">
         <v>3</v>
       </c>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="204"/>
+      <c r="H11" s="196"/>
       <c r="I11" s="174"/>
       <c r="J11" s="174"/>
       <c r="K11" s="174"/>
@@ -29075,22 +29074,22 @@
       <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:15" ht="15">
-      <c r="A12" s="208" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B12" s="209">
+      <c r="A12" s="200" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B12" s="201">
         <v>4</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="209">
+      <c r="D12" s="201">
         <v>4</v>
       </c>
-      <c r="E12" s="209"/>
-      <c r="F12" s="210"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="204"/>
+      <c r="H12" s="196"/>
       <c r="I12" s="174"/>
       <c r="J12" s="174"/>
       <c r="K12" s="174"/>
@@ -29100,22 +29099,22 @@
       <c r="O12" s="174"/>
     </row>
     <row r="13" spans="1:15" ht="15">
-      <c r="A13" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B13" s="206">
+      <c r="A13" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" s="198">
         <v>5</v>
       </c>
-      <c r="C13" s="206" t="s">
+      <c r="C13" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="206">
+      <c r="D13" s="198">
         <v>5</v>
       </c>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="204"/>
+      <c r="H13" s="196"/>
       <c r="I13" s="174"/>
       <c r="J13" s="174"/>
       <c r="K13" s="174"/>
@@ -29125,22 +29124,22 @@
       <c r="O13" s="174"/>
     </row>
     <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="208" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B14" s="209">
+      <c r="A14" s="200" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="201">
         <v>6</v>
       </c>
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="209">
+      <c r="D14" s="201">
         <v>6</v>
       </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="210"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="204"/>
+      <c r="H14" s="196"/>
       <c r="I14" s="174"/>
       <c r="J14" s="174"/>
       <c r="K14" s="174"/>
@@ -29150,22 +29149,22 @@
       <c r="O14" s="174"/>
     </row>
     <row r="15" spans="1:15" ht="15">
-      <c r="A15" s="205" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B15" s="206">
+      <c r="A15" s="197" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="198">
         <v>7</v>
       </c>
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="206">
+      <c r="D15" s="198">
         <v>7</v>
       </c>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="204"/>
+      <c r="H15" s="196"/>
       <c r="I15" s="174"/>
       <c r="J15" s="174"/>
       <c r="K15" s="174"/>
@@ -29175,22 +29174,22 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15">
-      <c r="A16" s="208" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B16" s="209">
+      <c r="A16" s="200" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" s="201">
         <v>8</v>
       </c>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="209">
+      <c r="D16" s="201">
         <v>8</v>
       </c>
-      <c r="E16" s="209"/>
-      <c r="F16" s="210"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="204"/>
+      <c r="H16" s="196"/>
       <c r="I16" s="174"/>
       <c r="J16" s="174"/>
       <c r="K16" s="174"/>
@@ -29200,22 +29199,22 @@
       <c r="O16" s="174"/>
     </row>
     <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="205" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B17" s="206">
+      <c r="A17" s="197" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B17" s="198">
         <v>9</v>
       </c>
-      <c r="C17" s="206" t="s">
+      <c r="C17" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="206">
+      <c r="D17" s="198">
         <v>9</v>
       </c>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="204"/>
+      <c r="H17" s="196"/>
       <c r="I17" s="174"/>
       <c r="J17" s="174"/>
       <c r="K17" s="174"/>
@@ -29225,1330 +29224,1330 @@
       <c r="O17" s="174"/>
     </row>
     <row r="18" spans="1:15" ht="15">
-      <c r="A18" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B18" s="209">
+      <c r="A18" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B18" s="201">
         <v>10</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="209">
+      <c r="D18" s="201">
         <v>10</v>
       </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="210"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="196"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B19" s="206">
+      <c r="A19" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B19" s="198">
         <v>11</v>
       </c>
-      <c r="C19" s="206" t="s">
+      <c r="C19" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="206">
+      <c r="D19" s="198">
         <v>11</v>
       </c>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
     </row>
     <row r="20" spans="1:15" ht="15">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="200" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B20" s="201">
+        <v>12</v>
+      </c>
+      <c r="C20" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="201">
+        <v>12</v>
+      </c>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+    </row>
+    <row r="21" spans="1:15" ht="15">
+      <c r="A21" s="197" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B21" s="198">
+        <v>13</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="198">
+        <v>13</v>
+      </c>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
+    </row>
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="200" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B22" s="201">
+        <v>14</v>
+      </c>
+      <c r="C22" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="201">
+        <v>14</v>
+      </c>
+      <c r="E22" s="201"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="196"/>
+    </row>
+    <row r="23" spans="1:15" ht="15">
+      <c r="A23" s="197" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B23" s="198">
+        <v>15</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="198">
+        <v>15</v>
+      </c>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24" s="200" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B24" s="201">
+        <v>16</v>
+      </c>
+      <c r="C24" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="201">
+        <v>16</v>
+      </c>
+      <c r="E24" s="201"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="196"/>
+    </row>
+    <row r="25" spans="1:15" ht="15">
+      <c r="A25" s="206" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B25" s="207">
+        <v>17</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="207">
+        <v>17</v>
+      </c>
+      <c r="E25" s="207"/>
+      <c r="F25" s="208" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="196"/>
+      <c r="O25" s="196"/>
+    </row>
+    <row r="26" spans="1:15" ht="15">
+      <c r="A26" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" s="201">
+        <v>18</v>
+      </c>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="196"/>
+    </row>
+    <row r="27" spans="1:15" ht="15">
+      <c r="A27" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B27" s="198">
+        <v>19</v>
+      </c>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+    </row>
+    <row r="28" spans="1:15" ht="15">
+      <c r="A28" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B28" s="201">
+        <v>20</v>
+      </c>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="201"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="196"/>
+    </row>
+    <row r="29" spans="1:15" ht="15">
+      <c r="A29" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B29" s="198">
+        <v>21</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+    </row>
+    <row r="30" spans="1:15" ht="15">
+      <c r="A30" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" s="201">
+        <v>22</v>
+      </c>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="201"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="196"/>
+      <c r="O30" s="196"/>
+    </row>
+    <row r="31" spans="1:15" ht="15">
+      <c r="A31" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B31" s="198">
+        <v>23</v>
+      </c>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="198"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+    </row>
+    <row r="32" spans="1:15" ht="15">
+      <c r="A32" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B32" s="201">
+        <v>24</v>
+      </c>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="201"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="196"/>
+    </row>
+    <row r="33" spans="1:15" ht="15">
+      <c r="A33" s="197" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B33" s="198">
+        <v>25</v>
+      </c>
+      <c r="C33" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="198">
+        <v>25</v>
+      </c>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="196"/>
+      <c r="N33" s="196"/>
+      <c r="O33" s="196"/>
+    </row>
+    <row r="34" spans="1:15" ht="15">
+      <c r="A34" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" s="201">
+        <v>26</v>
+      </c>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="201"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="196"/>
+    </row>
+    <row r="35" spans="1:15" ht="15">
+      <c r="A35" s="197" t="s">
         <v>1068</v>
       </c>
-      <c r="B20" s="209">
-        <v>12</v>
-      </c>
-      <c r="C20" s="209" t="s">
+      <c r="B35" s="198">
+        <v>27</v>
+      </c>
+      <c r="C35" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="209">
-        <v>12</v>
-      </c>
-      <c r="E20" s="209"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-    </row>
-    <row r="21" spans="1:15" ht="15">
-      <c r="A21" s="205" t="s">
+      <c r="D35" s="198">
+        <v>27</v>
+      </c>
+      <c r="E35" s="198"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
+      <c r="O35" s="196"/>
+    </row>
+    <row r="36" spans="1:15" ht="15">
+      <c r="A36" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B36" s="201">
+        <v>28</v>
+      </c>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="201"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
+      <c r="M36" s="196"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="196"/>
+    </row>
+    <row r="37" spans="1:15" ht="15">
+      <c r="A37" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B37" s="198">
+        <v>29</v>
+      </c>
+      <c r="C37" s="198"/>
+      <c r="D37" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="198"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
+    </row>
+    <row r="38" spans="1:15" ht="15">
+      <c r="A38" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B38" s="201">
+        <v>30</v>
+      </c>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="201"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="196"/>
+      <c r="M38" s="196"/>
+      <c r="N38" s="196"/>
+      <c r="O38" s="196"/>
+    </row>
+    <row r="39" spans="1:15" ht="15">
+      <c r="A39" s="197" t="s">
         <v>1069</v>
       </c>
-      <c r="B21" s="206">
-        <v>13</v>
-      </c>
-      <c r="C21" s="206" t="s">
+      <c r="B39" s="198">
+        <v>31</v>
+      </c>
+      <c r="C39" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="206">
-        <v>13</v>
-      </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-    </row>
-    <row r="22" spans="1:15" ht="15">
-      <c r="A22" s="208" t="s">
+      <c r="D39" s="198">
+        <v>31</v>
+      </c>
+      <c r="E39" s="198"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+    </row>
+    <row r="40" spans="1:15" ht="15">
+      <c r="A40" s="200" t="s">
         <v>1070</v>
       </c>
-      <c r="B22" s="209">
-        <v>14</v>
-      </c>
-      <c r="C22" s="209" t="s">
+      <c r="B40" s="201">
+        <v>32</v>
+      </c>
+      <c r="C40" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="209">
-        <v>14</v>
-      </c>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-    </row>
-    <row r="23" spans="1:15" ht="15">
-      <c r="A23" s="205" t="s">
+      <c r="D40" s="201">
+        <v>32</v>
+      </c>
+      <c r="E40" s="201"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="196"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="196"/>
+    </row>
+    <row r="41" spans="1:15" ht="15">
+      <c r="A41" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B41" s="198">
+        <v>33</v>
+      </c>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="198"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+    </row>
+    <row r="42" spans="1:15" ht="15">
+      <c r="A42" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B42" s="201">
+        <v>34</v>
+      </c>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="201"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="196"/>
+    </row>
+    <row r="43" spans="1:15" ht="15">
+      <c r="A43" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B43" s="198">
+        <v>35</v>
+      </c>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="198"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="196"/>
+    </row>
+    <row r="44" spans="1:15" ht="15">
+      <c r="A44" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B44" s="201">
+        <v>36</v>
+      </c>
+      <c r="C44" s="201"/>
+      <c r="D44" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="201"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+    </row>
+    <row r="45" spans="1:15" ht="15">
+      <c r="A45" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B45" s="198">
+        <v>37</v>
+      </c>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="198"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="196"/>
+      <c r="O45" s="196"/>
+    </row>
+    <row r="46" spans="1:15" ht="15">
+      <c r="A46" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B46" s="201">
+        <v>38</v>
+      </c>
+      <c r="C46" s="201"/>
+      <c r="D46" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="201"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
+      <c r="L46" s="196"/>
+      <c r="M46" s="196"/>
+      <c r="N46" s="196"/>
+      <c r="O46" s="196"/>
+    </row>
+    <row r="47" spans="1:15" ht="15">
+      <c r="A47" s="197" t="s">
         <v>1071</v>
       </c>
-      <c r="B23" s="206">
-        <v>15</v>
-      </c>
-      <c r="C23" s="206" t="s">
+      <c r="B47" s="198">
+        <v>39</v>
+      </c>
+      <c r="C47" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="206">
-        <v>15</v>
-      </c>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-    </row>
-    <row r="24" spans="1:15" ht="15">
-      <c r="A24" s="208" t="s">
+      <c r="D47" s="198">
+        <v>39</v>
+      </c>
+      <c r="E47" s="198"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="196"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="196"/>
+      <c r="O47" s="196"/>
+    </row>
+    <row r="48" spans="1:15" ht="30">
+      <c r="A48" s="203" t="s">
         <v>1072</v>
       </c>
-      <c r="B24" s="209">
-        <v>16</v>
-      </c>
-      <c r="C24" s="209" t="s">
+      <c r="B48" s="204">
+        <v>40</v>
+      </c>
+      <c r="C48" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="209">
-        <v>16</v>
-      </c>
-      <c r="E24" s="209"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="204"/>
-    </row>
-    <row r="25" spans="1:15" ht="15">
-      <c r="A25" s="214" t="s">
+      <c r="D48" s="204">
+        <v>40</v>
+      </c>
+      <c r="E48" s="204"/>
+      <c r="F48" s="205" t="s">
         <v>1073</v>
       </c>
-      <c r="B25" s="215">
-        <v>17</v>
-      </c>
-      <c r="C25" s="215" t="s">
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="196"/>
+      <c r="K48" s="196"/>
+      <c r="L48" s="196"/>
+      <c r="M48" s="196"/>
+      <c r="N48" s="196"/>
+      <c r="O48" s="196"/>
+    </row>
+    <row r="49" spans="1:15" ht="15">
+      <c r="A49" s="197" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B49" s="198">
+        <v>41</v>
+      </c>
+      <c r="C49" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="215">
-        <v>17</v>
-      </c>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-    </row>
-    <row r="26" spans="1:15" ht="15">
-      <c r="A26" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B26" s="209">
-        <v>18</v>
-      </c>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-    </row>
-    <row r="27" spans="1:15" ht="15">
-      <c r="A27" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B27" s="206">
-        <v>19</v>
-      </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="204"/>
-    </row>
-    <row r="28" spans="1:15" ht="15">
-      <c r="A28" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B28" s="209">
-        <v>20</v>
-      </c>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="204"/>
-    </row>
-    <row r="29" spans="1:15" ht="15">
-      <c r="A29" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B29" s="206">
-        <v>21</v>
-      </c>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="204"/>
-    </row>
-    <row r="30" spans="1:15" ht="15">
-      <c r="A30" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B30" s="209">
-        <v>22</v>
-      </c>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="209"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="204"/>
-      <c r="M30" s="204"/>
-      <c r="N30" s="204"/>
-      <c r="O30" s="204"/>
-    </row>
-    <row r="31" spans="1:15" ht="15">
-      <c r="A31" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B31" s="206">
-        <v>23</v>
-      </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="204"/>
-    </row>
-    <row r="32" spans="1:15" ht="15">
-      <c r="A32" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B32" s="209">
-        <v>24</v>
-      </c>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="204"/>
-    </row>
-    <row r="33" spans="1:15" ht="15">
-      <c r="A33" s="205" t="s">
+      <c r="D49" s="198">
+        <v>41</v>
+      </c>
+      <c r="E49" s="198"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196"/>
+      <c r="O49" s="196"/>
+    </row>
+    <row r="50" spans="1:15" ht="15">
+      <c r="A50" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B50" s="201">
+        <v>42</v>
+      </c>
+      <c r="C50" s="201"/>
+      <c r="D50" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="201"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="196"/>
+      <c r="M50" s="196"/>
+      <c r="N50" s="196"/>
+      <c r="O50" s="196"/>
+    </row>
+    <row r="51" spans="1:15" ht="15">
+      <c r="A51" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B51" s="198">
+        <v>43</v>
+      </c>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="198"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
+      <c r="M51" s="196"/>
+      <c r="N51" s="196"/>
+      <c r="O51" s="196"/>
+    </row>
+    <row r="52" spans="1:15" ht="15">
+      <c r="A52" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B52" s="201">
+        <v>44</v>
+      </c>
+      <c r="C52" s="201"/>
+      <c r="D52" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="201"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
+      <c r="N52" s="196"/>
+      <c r="O52" s="196"/>
+    </row>
+    <row r="53" spans="1:15" ht="15">
+      <c r="A53" s="197" t="s">
+        <v>917</v>
+      </c>
+      <c r="B53" s="198">
+        <v>45</v>
+      </c>
+      <c r="C53" s="198"/>
+      <c r="D53" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="198"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="196"/>
+      <c r="M53" s="196"/>
+      <c r="N53" s="196"/>
+      <c r="O53" s="196"/>
+    </row>
+    <row r="54" spans="1:15" ht="15">
+      <c r="A54" s="200" t="s">
         <v>1075</v>
       </c>
-      <c r="B33" s="206">
-        <v>25</v>
-      </c>
-      <c r="C33" s="206" t="s">
+      <c r="B54" s="201">
+        <v>46</v>
+      </c>
+      <c r="C54" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="206">
-        <v>25</v>
-      </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
-    </row>
-    <row r="34" spans="1:15" ht="15">
-      <c r="A34" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B34" s="209">
-        <v>26</v>
-      </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="209"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
-    </row>
-    <row r="35" spans="1:15" ht="15">
-      <c r="A35" s="205" t="s">
+      <c r="D54" s="201">
+        <v>46</v>
+      </c>
+      <c r="E54" s="201"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="196"/>
+      <c r="M54" s="196"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="196"/>
+    </row>
+    <row r="55" spans="1:15" ht="15">
+      <c r="A55" s="197" t="s">
         <v>1076</v>
       </c>
-      <c r="B35" s="206">
-        <v>27</v>
-      </c>
-      <c r="C35" s="206" t="s">
+      <c r="B55" s="198">
+        <v>47</v>
+      </c>
+      <c r="C55" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="206">
-        <v>27</v>
-      </c>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
-    </row>
-    <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B36" s="209">
-        <v>28</v>
-      </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="209"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="204"/>
-    </row>
-    <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B37" s="206">
-        <v>29</v>
-      </c>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="206"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
-    </row>
-    <row r="38" spans="1:15" ht="15">
-      <c r="A38" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B38" s="209">
-        <v>30</v>
-      </c>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="209"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
-    </row>
-    <row r="39" spans="1:15" ht="15">
-      <c r="A39" s="205" t="s">
+      <c r="D55" s="198">
+        <v>47</v>
+      </c>
+      <c r="E55" s="198"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="196"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="196"/>
+      <c r="M55" s="196"/>
+      <c r="N55" s="196"/>
+      <c r="O55" s="196"/>
+    </row>
+    <row r="56" spans="1:15" ht="15">
+      <c r="A56" s="200" t="s">
         <v>1077</v>
       </c>
-      <c r="B39" s="206">
-        <v>31</v>
-      </c>
-      <c r="C39" s="206" t="s">
+      <c r="B56" s="201">
+        <v>48</v>
+      </c>
+      <c r="C56" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="206">
-        <v>31</v>
-      </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
-    </row>
-    <row r="40" spans="1:15" ht="15">
-      <c r="A40" s="208" t="s">
+      <c r="D56" s="201">
+        <v>48</v>
+      </c>
+      <c r="E56" s="201"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="196"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="196"/>
+      <c r="K56" s="196"/>
+      <c r="L56" s="196"/>
+      <c r="M56" s="196"/>
+      <c r="N56" s="196"/>
+      <c r="O56" s="196"/>
+    </row>
+    <row r="57" spans="1:15" ht="15">
+      <c r="A57" s="197" t="s">
         <v>1078</v>
       </c>
-      <c r="B40" s="209">
-        <v>32</v>
-      </c>
-      <c r="C40" s="209" t="s">
+      <c r="B57" s="198">
+        <v>49</v>
+      </c>
+      <c r="C57" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="209">
-        <v>32</v>
-      </c>
-      <c r="E40" s="209"/>
-      <c r="F40" s="210"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="204"/>
-    </row>
-    <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B41" s="206">
-        <v>33</v>
-      </c>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="206"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="204"/>
-    </row>
-    <row r="42" spans="1:15" ht="15">
-      <c r="A42" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B42" s="209">
-        <v>34</v>
-      </c>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="209"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="204"/>
-    </row>
-    <row r="43" spans="1:15" ht="15">
-      <c r="A43" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B43" s="206">
-        <v>35</v>
-      </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="206"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="204"/>
-      <c r="M43" s="204"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="204"/>
-    </row>
-    <row r="44" spans="1:15" ht="15">
-      <c r="A44" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B44" s="209">
-        <v>36</v>
-      </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="209"/>
-      <c r="F44" s="210"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="204"/>
-      <c r="I44" s="204"/>
-      <c r="J44" s="204"/>
-      <c r="K44" s="204"/>
-      <c r="L44" s="204"/>
-      <c r="M44" s="204"/>
-      <c r="N44" s="204"/>
-      <c r="O44" s="204"/>
-    </row>
-    <row r="45" spans="1:15" ht="15">
-      <c r="A45" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B45" s="206">
-        <v>37</v>
-      </c>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="206"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="204"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="204"/>
-      <c r="M45" s="204"/>
-      <c r="N45" s="204"/>
-      <c r="O45" s="204"/>
-    </row>
-    <row r="46" spans="1:15" ht="15">
-      <c r="A46" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B46" s="209">
-        <v>38</v>
-      </c>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="209"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204"/>
-      <c r="K46" s="204"/>
-      <c r="L46" s="204"/>
-      <c r="M46" s="204"/>
-      <c r="N46" s="204"/>
-      <c r="O46" s="204"/>
-    </row>
-    <row r="47" spans="1:15" ht="15">
-      <c r="A47" s="205" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B47" s="206">
-        <v>39</v>
-      </c>
-      <c r="C47" s="206" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="206">
-        <v>39</v>
-      </c>
-      <c r="E47" s="206"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
-      <c r="I47" s="204"/>
-      <c r="J47" s="204"/>
-      <c r="K47" s="204"/>
-      <c r="L47" s="204"/>
-      <c r="M47" s="204"/>
-      <c r="N47" s="204"/>
-      <c r="O47" s="204"/>
-    </row>
-    <row r="48" spans="1:15" ht="30">
-      <c r="A48" s="211" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B48" s="212">
-        <v>40</v>
-      </c>
-      <c r="C48" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="212">
-        <v>40</v>
-      </c>
-      <c r="E48" s="212"/>
-      <c r="F48" s="213" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="204"/>
-    </row>
-    <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="205" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B49" s="206">
-        <v>41</v>
-      </c>
-      <c r="C49" s="206" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="206">
-        <v>41</v>
-      </c>
-      <c r="E49" s="206"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="204"/>
-      <c r="H49" s="204"/>
-      <c r="I49" s="204"/>
-      <c r="J49" s="204"/>
-      <c r="K49" s="204"/>
-      <c r="L49" s="204"/>
-      <c r="M49" s="204"/>
-      <c r="N49" s="204"/>
-      <c r="O49" s="204"/>
-    </row>
-    <row r="50" spans="1:15" ht="15">
-      <c r="A50" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B50" s="209">
-        <v>42</v>
-      </c>
-      <c r="C50" s="209"/>
-      <c r="D50" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="209"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="204"/>
-      <c r="J50" s="204"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="204"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="204"/>
-    </row>
-    <row r="51" spans="1:15" ht="15">
-      <c r="A51" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B51" s="206">
-        <v>43</v>
-      </c>
-      <c r="C51" s="206"/>
-      <c r="D51" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="206"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="204"/>
-      <c r="I51" s="204"/>
-      <c r="J51" s="204"/>
-      <c r="K51" s="204"/>
-      <c r="L51" s="204"/>
-      <c r="M51" s="204"/>
-      <c r="N51" s="204"/>
-      <c r="O51" s="204"/>
-    </row>
-    <row r="52" spans="1:15" ht="15">
-      <c r="A52" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B52" s="209">
-        <v>44</v>
-      </c>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="209"/>
-      <c r="F52" s="210"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
-      <c r="K52" s="204"/>
-      <c r="L52" s="204"/>
-      <c r="M52" s="204"/>
-      <c r="N52" s="204"/>
-      <c r="O52" s="204"/>
-    </row>
-    <row r="53" spans="1:15" ht="15">
-      <c r="A53" s="205" t="s">
-        <v>918</v>
-      </c>
-      <c r="B53" s="206">
-        <v>45</v>
-      </c>
-      <c r="C53" s="206"/>
-      <c r="D53" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="206"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
-      <c r="K53" s="204"/>
-      <c r="L53" s="204"/>
-      <c r="M53" s="204"/>
-      <c r="N53" s="204"/>
-      <c r="O53" s="204"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
-      <c r="A54" s="208" t="s">
+      <c r="D57" s="198">
+        <v>49</v>
+      </c>
+      <c r="E57" s="198"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="196"/>
+      <c r="H57" s="196"/>
+      <c r="I57" s="196"/>
+      <c r="J57" s="196"/>
+      <c r="K57" s="196"/>
+      <c r="L57" s="196"/>
+      <c r="M57" s="196"/>
+      <c r="N57" s="196"/>
+      <c r="O57" s="196"/>
+    </row>
+    <row r="58" spans="1:15" ht="15">
+      <c r="A58" s="200" t="s">
+        <v>917</v>
+      </c>
+      <c r="B58" s="201">
+        <v>50</v>
+      </c>
+      <c r="C58" s="201"/>
+      <c r="D58" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="201"/>
+      <c r="F58" s="202" t="s">
         <v>1083</v>
       </c>
-      <c r="B54" s="209">
-        <v>46</v>
-      </c>
-      <c r="C54" s="209" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="209">
-        <v>46</v>
-      </c>
-      <c r="E54" s="209"/>
-      <c r="F54" s="210"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="204"/>
-      <c r="I54" s="204"/>
-      <c r="J54" s="204"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="204"/>
-      <c r="M54" s="204"/>
-      <c r="N54" s="204"/>
-      <c r="O54" s="204"/>
-    </row>
-    <row r="55" spans="1:15" ht="15">
-      <c r="A55" s="205" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B55" s="206">
-        <v>47</v>
-      </c>
-      <c r="C55" s="206" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="206">
-        <v>47</v>
-      </c>
-      <c r="E55" s="206"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="204"/>
-      <c r="M55" s="204"/>
-      <c r="N55" s="204"/>
-      <c r="O55" s="204"/>
-    </row>
-    <row r="56" spans="1:15" ht="15">
-      <c r="A56" s="208" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B56" s="209">
-        <v>48</v>
-      </c>
-      <c r="C56" s="209" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="209">
-        <v>48</v>
-      </c>
-      <c r="E56" s="209"/>
-      <c r="F56" s="210"/>
-      <c r="G56" s="204"/>
-      <c r="H56" s="204"/>
-      <c r="I56" s="204"/>
-      <c r="J56" s="204"/>
-      <c r="K56" s="204"/>
-      <c r="L56" s="204"/>
-      <c r="M56" s="204"/>
-      <c r="N56" s="204"/>
-      <c r="O56" s="204"/>
-    </row>
-    <row r="57" spans="1:15" ht="15">
-      <c r="A57" s="205" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B57" s="206">
-        <v>49</v>
-      </c>
-      <c r="C57" s="206" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="206">
-        <v>49</v>
-      </c>
-      <c r="E57" s="206"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="204"/>
-      <c r="H57" s="204"/>
-      <c r="I57" s="204"/>
-      <c r="J57" s="204"/>
-      <c r="K57" s="204"/>
-      <c r="L57" s="204"/>
-      <c r="M57" s="204"/>
-      <c r="N57" s="204"/>
-      <c r="O57" s="204"/>
-    </row>
-    <row r="58" spans="1:15" ht="15">
-      <c r="A58" s="208" t="s">
-        <v>918</v>
-      </c>
-      <c r="B58" s="209">
-        <v>50</v>
-      </c>
-      <c r="C58" s="209"/>
-      <c r="D58" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="209"/>
-      <c r="F58" s="210" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G58" s="204"/>
-      <c r="H58" s="204"/>
-      <c r="I58" s="204"/>
-      <c r="J58" s="204"/>
-      <c r="K58" s="204"/>
-      <c r="L58" s="204"/>
-      <c r="M58" s="204"/>
-      <c r="N58" s="204"/>
-      <c r="O58" s="204"/>
+      <c r="G58" s="196"/>
+      <c r="H58" s="196"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
+      <c r="K58" s="196"/>
+      <c r="L58" s="196"/>
+      <c r="M58" s="196"/>
+      <c r="N58" s="196"/>
+      <c r="O58" s="196"/>
     </row>
     <row r="59" spans="1:15" ht="15">
-      <c r="A59" s="204"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="204"/>
-      <c r="D59" s="204"/>
-      <c r="E59" s="204"/>
-      <c r="F59" s="204"/>
-      <c r="G59" s="204"/>
-      <c r="H59" s="204"/>
-      <c r="I59" s="204"/>
+      <c r="A59" s="196"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="196"/>
+      <c r="I59" s="196"/>
     </row>
     <row r="60" spans="1:15" ht="15">
-      <c r="A60" s="204"/>
-      <c r="B60" s="204"/>
-      <c r="C60" s="204"/>
-      <c r="D60" s="204"/>
-      <c r="E60" s="204"/>
-      <c r="F60" s="204"/>
-      <c r="G60" s="204"/>
-      <c r="H60" s="204"/>
-      <c r="I60" s="204"/>
+      <c r="A60" s="196"/>
+      <c r="B60" s="196"/>
+      <c r="C60" s="196"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="196"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="196"/>
+      <c r="H60" s="196"/>
+      <c r="I60" s="196"/>
     </row>
     <row r="61" spans="1:15" ht="15">
-      <c r="A61" s="204"/>
-      <c r="B61" s="204"/>
-      <c r="C61" s="204"/>
-      <c r="D61" s="204"/>
-      <c r="E61" s="204"/>
-      <c r="F61" s="204"/>
-      <c r="G61" s="204"/>
-      <c r="H61" s="204"/>
-      <c r="I61" s="204"/>
+      <c r="A61" s="196"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="196"/>
+      <c r="F61" s="196"/>
+      <c r="G61" s="196"/>
+      <c r="H61" s="196"/>
+      <c r="I61" s="196"/>
     </row>
     <row r="62" spans="1:15" ht="15">
-      <c r="A62" s="204"/>
-      <c r="B62" s="204"/>
-      <c r="C62" s="204"/>
-      <c r="D62" s="204"/>
-      <c r="E62" s="204"/>
-      <c r="F62" s="204"/>
-      <c r="G62" s="204"/>
-      <c r="H62" s="204"/>
-      <c r="I62" s="204"/>
+      <c r="A62" s="196"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="196"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="196"/>
+      <c r="F62" s="196"/>
+      <c r="G62" s="196"/>
+      <c r="H62" s="196"/>
+      <c r="I62" s="196"/>
     </row>
     <row r="63" spans="1:15" ht="15">
-      <c r="A63" s="204"/>
-      <c r="B63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
-      <c r="G63" s="204"/>
-      <c r="H63" s="204"/>
-      <c r="I63" s="204"/>
+      <c r="A63" s="196"/>
+      <c r="B63" s="196"/>
+      <c r="E63" s="196"/>
+      <c r="F63" s="196"/>
+      <c r="G63" s="196"/>
+      <c r="H63" s="196"/>
+      <c r="I63" s="196"/>
     </row>
     <row r="64" spans="1:15" ht="15">
-      <c r="A64" s="204"/>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="H64" s="204"/>
-      <c r="I64" s="204"/>
+      <c r="A64" s="196"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="196"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="196"/>
+      <c r="F64" s="196"/>
+      <c r="G64" s="196"/>
+      <c r="H64" s="196"/>
+      <c r="I64" s="196"/>
     </row>
     <row r="65" spans="1:9" ht="15">
-      <c r="A65" s="204"/>
-      <c r="B65" s="204"/>
-      <c r="C65" s="204"/>
-      <c r="D65" s="204"/>
-      <c r="E65" s="204"/>
-      <c r="F65" s="204"/>
-      <c r="G65" s="204"/>
-      <c r="H65" s="204"/>
-      <c r="I65" s="204"/>
+      <c r="A65" s="196"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="196"/>
+      <c r="F65" s="196"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="196"/>
+      <c r="I65" s="196"/>
     </row>
     <row r="66" spans="1:9" ht="15">
-      <c r="A66" s="204"/>
-      <c r="B66" s="204"/>
-      <c r="C66" s="204"/>
-      <c r="D66" s="204"/>
-      <c r="E66" s="204"/>
-      <c r="F66" s="204"/>
-      <c r="G66" s="204"/>
-      <c r="H66" s="204"/>
-      <c r="I66" s="204"/>
+      <c r="A66" s="196"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="196"/>
+      <c r="D66" s="196"/>
+      <c r="E66" s="196"/>
+      <c r="F66" s="196"/>
+      <c r="G66" s="196"/>
+      <c r="H66" s="196"/>
+      <c r="I66" s="196"/>
     </row>
     <row r="67" spans="1:9" ht="15">
-      <c r="A67" s="204"/>
-      <c r="B67" s="204"/>
-      <c r="C67" s="204"/>
-      <c r="D67" s="204"/>
-      <c r="E67" s="204"/>
-      <c r="F67" s="204"/>
-      <c r="G67" s="204"/>
-      <c r="H67" s="204"/>
-      <c r="I67" s="204"/>
+      <c r="A67" s="196"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="196"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="196"/>
+      <c r="H67" s="196"/>
+      <c r="I67" s="196"/>
     </row>
     <row r="68" spans="1:9" ht="15">
-      <c r="A68" s="204"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="204"/>
-      <c r="D68" s="204"/>
-      <c r="E68" s="204"/>
-      <c r="F68" s="204"/>
-      <c r="G68" s="204"/>
-      <c r="H68" s="204"/>
-      <c r="I68" s="204"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="196"/>
+      <c r="E68" s="196"/>
+      <c r="F68" s="196"/>
+      <c r="G68" s="196"/>
+      <c r="H68" s="196"/>
+      <c r="I68" s="196"/>
     </row>
     <row r="69" spans="1:9" ht="15">
-      <c r="A69" s="204"/>
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="204"/>
-      <c r="F69" s="204"/>
-      <c r="G69" s="204"/>
-      <c r="H69" s="204"/>
-      <c r="I69" s="204"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="196"/>
+      <c r="D69" s="196"/>
+      <c r="E69" s="196"/>
+      <c r="F69" s="196"/>
+      <c r="G69" s="196"/>
+      <c r="H69" s="196"/>
+      <c r="I69" s="196"/>
     </row>
     <row r="70" spans="1:9" ht="15">
-      <c r="A70" s="204"/>
-      <c r="B70" s="204"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
-      <c r="G70" s="204"/>
-      <c r="H70" s="204"/>
-      <c r="I70" s="204"/>
+      <c r="A70" s="196"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="196"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="196"/>
+      <c r="G70" s="196"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
     </row>
     <row r="71" spans="1:9" ht="15">
-      <c r="A71" s="204"/>
-      <c r="B71" s="204"/>
-      <c r="C71" s="204"/>
-      <c r="D71" s="204"/>
-      <c r="E71" s="204"/>
-      <c r="F71" s="204"/>
-      <c r="G71" s="204"/>
-      <c r="H71" s="204"/>
-      <c r="I71" s="204"/>
+      <c r="A71" s="196"/>
+      <c r="B71" s="196"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="196"/>
+      <c r="E71" s="196"/>
+      <c r="F71" s="196"/>
+      <c r="G71" s="196"/>
+      <c r="H71" s="196"/>
+      <c r="I71" s="196"/>
     </row>
     <row r="72" spans="1:9" ht="15">
-      <c r="A72" s="204"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="204"/>
-      <c r="E72" s="204"/>
-      <c r="F72" s="204"/>
-      <c r="G72" s="204"/>
-      <c r="H72" s="204"/>
-      <c r="I72" s="204"/>
+      <c r="A72" s="196"/>
+      <c r="B72" s="196"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="196"/>
+      <c r="E72" s="196"/>
+      <c r="F72" s="196"/>
+      <c r="G72" s="196"/>
+      <c r="H72" s="196"/>
+      <c r="I72" s="196"/>
     </row>
     <row r="73" spans="1:9" ht="15">
-      <c r="A73" s="204"/>
-      <c r="B73" s="204"/>
-      <c r="C73" s="204"/>
-      <c r="D73" s="204"/>
-      <c r="E73" s="204"/>
-      <c r="F73" s="204"/>
-      <c r="G73" s="204"/>
-      <c r="H73" s="204"/>
-      <c r="I73" s="204"/>
+      <c r="A73" s="196"/>
+      <c r="B73" s="196"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="196"/>
+      <c r="E73" s="196"/>
+      <c r="F73" s="196"/>
+      <c r="G73" s="196"/>
+      <c r="H73" s="196"/>
+      <c r="I73" s="196"/>
     </row>
     <row r="74" spans="1:9" ht="15">
-      <c r="A74" s="204"/>
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="204"/>
-      <c r="E74" s="204"/>
-      <c r="F74" s="204"/>
-      <c r="G74" s="204"/>
-      <c r="H74" s="204"/>
-      <c r="I74" s="204"/>
+      <c r="A74" s="196"/>
+      <c r="B74" s="196"/>
+      <c r="C74" s="196"/>
+      <c r="D74" s="196"/>
+      <c r="E74" s="196"/>
+      <c r="F74" s="196"/>
+      <c r="G74" s="196"/>
+      <c r="H74" s="196"/>
+      <c r="I74" s="196"/>
     </row>
     <row r="75" spans="1:9" ht="15">
-      <c r="A75" s="204"/>
-      <c r="B75" s="204"/>
-      <c r="C75" s="204"/>
-      <c r="D75" s="204"/>
-      <c r="E75" s="204"/>
-      <c r="F75" s="204"/>
-      <c r="G75" s="204"/>
-      <c r="H75" s="204"/>
-      <c r="I75" s="204"/>
+      <c r="A75" s="196"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="196"/>
+      <c r="D75" s="196"/>
+      <c r="E75" s="196"/>
+      <c r="F75" s="196"/>
+      <c r="G75" s="196"/>
+      <c r="H75" s="196"/>
+      <c r="I75" s="196"/>
     </row>
     <row r="76" spans="1:9" ht="15">
-      <c r="A76" s="204"/>
-      <c r="B76" s="204"/>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
+      <c r="A76" s="196"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="196"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="196"/>
+      <c r="F76" s="196"/>
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
     </row>
     <row r="77" spans="1:9" ht="15">
-      <c r="A77" s="204"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="204"/>
-      <c r="F77" s="204"/>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
-      <c r="I77" s="204"/>
+      <c r="A77" s="196"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="196"/>
+      <c r="D77" s="196"/>
+      <c r="E77" s="196"/>
+      <c r="F77" s="196"/>
+      <c r="G77" s="196"/>
+      <c r="H77" s="196"/>
+      <c r="I77" s="196"/>
     </row>
     <row r="78" spans="1:9" ht="15">
-      <c r="A78" s="204"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="204"/>
-      <c r="G78" s="204"/>
-      <c r="H78" s="204"/>
-      <c r="I78" s="204"/>
+      <c r="A78" s="196"/>
+      <c r="B78" s="196"/>
+      <c r="C78" s="196"/>
+      <c r="D78" s="196"/>
+      <c r="E78" s="196"/>
+      <c r="F78" s="196"/>
+      <c r="G78" s="196"/>
+      <c r="H78" s="196"/>
+      <c r="I78" s="196"/>
     </row>
     <row r="79" spans="1:9" ht="15">
-      <c r="A79" s="204"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="204"/>
-      <c r="D79" s="204"/>
-      <c r="E79" s="204"/>
-      <c r="F79" s="204"/>
-      <c r="G79" s="204"/>
-      <c r="H79" s="204"/>
-      <c r="I79" s="204"/>
+      <c r="A79" s="196"/>
+      <c r="B79" s="196"/>
+      <c r="C79" s="196"/>
+      <c r="D79" s="196"/>
+      <c r="E79" s="196"/>
+      <c r="F79" s="196"/>
+      <c r="G79" s="196"/>
+      <c r="H79" s="196"/>
+      <c r="I79" s="196"/>
     </row>
     <row r="80" spans="1:9" ht="15">
-      <c r="A80" s="204"/>
-      <c r="B80" s="204"/>
-      <c r="C80" s="204"/>
-      <c r="D80" s="204"/>
-      <c r="E80" s="204"/>
-      <c r="F80" s="204"/>
-      <c r="G80" s="204"/>
-      <c r="H80" s="204"/>
-      <c r="I80" s="204"/>
+      <c r="A80" s="196"/>
+      <c r="B80" s="196"/>
+      <c r="C80" s="196"/>
+      <c r="D80" s="196"/>
+      <c r="E80" s="196"/>
+      <c r="F80" s="196"/>
+      <c r="G80" s="196"/>
+      <c r="H80" s="196"/>
+      <c r="I80" s="196"/>
     </row>
     <row r="81" spans="1:9" ht="15">
-      <c r="A81" s="204"/>
-      <c r="B81" s="204"/>
-      <c r="C81" s="204"/>
-      <c r="D81" s="204"/>
-      <c r="E81" s="204"/>
-      <c r="F81" s="204"/>
-      <c r="G81" s="204"/>
-      <c r="H81" s="204"/>
-      <c r="I81" s="204"/>
+      <c r="A81" s="196"/>
+      <c r="B81" s="196"/>
+      <c r="C81" s="196"/>
+      <c r="D81" s="196"/>
+      <c r="E81" s="196"/>
+      <c r="F81" s="196"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
     </row>
     <row r="82" spans="1:9" ht="15">
-      <c r="A82" s="204"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="204"/>
-      <c r="D82" s="204"/>
-      <c r="E82" s="204"/>
-      <c r="F82" s="204"/>
-      <c r="G82" s="204"/>
-      <c r="H82" s="204"/>
-      <c r="I82" s="204"/>
+      <c r="A82" s="196"/>
+      <c r="B82" s="196"/>
+      <c r="C82" s="196"/>
+      <c r="D82" s="196"/>
+      <c r="E82" s="196"/>
+      <c r="F82" s="196"/>
+      <c r="G82" s="196"/>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
     </row>
     <row r="83" spans="1:9" ht="15">
-      <c r="A83" s="204"/>
-      <c r="B83" s="204"/>
-      <c r="C83" s="204"/>
-      <c r="D83" s="204"/>
-      <c r="E83" s="204"/>
-      <c r="F83" s="204"/>
-      <c r="G83" s="204"/>
-      <c r="H83" s="204"/>
-      <c r="I83" s="204"/>
+      <c r="A83" s="196"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="196"/>
+      <c r="D83" s="196"/>
+      <c r="E83" s="196"/>
+      <c r="F83" s="196"/>
+      <c r="G83" s="196"/>
+      <c r="H83" s="196"/>
+      <c r="I83" s="196"/>
     </row>
     <row r="84" spans="1:9" ht="15">
-      <c r="A84" s="204"/>
-      <c r="B84" s="204"/>
-      <c r="C84" s="204"/>
-      <c r="D84" s="204"/>
-      <c r="E84" s="204"/>
-      <c r="F84" s="204"/>
-      <c r="G84" s="204"/>
-      <c r="H84" s="204"/>
-      <c r="I84" s="204"/>
+      <c r="A84" s="196"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
+      <c r="F84" s="196"/>
+      <c r="G84" s="196"/>
+      <c r="H84" s="196"/>
+      <c r="I84" s="196"/>
     </row>
     <row r="85" spans="1:9" ht="15">
-      <c r="A85" s="204"/>
-      <c r="B85" s="204"/>
-      <c r="C85" s="204"/>
-      <c r="D85" s="204"/>
-      <c r="E85" s="204"/>
-      <c r="F85" s="204"/>
-      <c r="G85" s="204"/>
-      <c r="H85" s="204"/>
-      <c r="I85" s="204"/>
+      <c r="A85" s="196"/>
+      <c r="B85" s="196"/>
+      <c r="C85" s="196"/>
+      <c r="D85" s="196"/>
+      <c r="E85" s="196"/>
+      <c r="F85" s="196"/>
+      <c r="G85" s="196"/>
+      <c r="H85" s="196"/>
+      <c r="I85" s="196"/>
     </row>
     <row r="86" spans="1:9" ht="15">
-      <c r="A86" s="204"/>
-      <c r="B86" s="204"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="204"/>
-      <c r="E86" s="204"/>
-      <c r="F86" s="204"/>
-      <c r="G86" s="204"/>
-      <c r="H86" s="204"/>
-      <c r="I86" s="204"/>
+      <c r="A86" s="196"/>
+      <c r="B86" s="196"/>
+      <c r="C86" s="196"/>
+      <c r="D86" s="196"/>
+      <c r="E86" s="196"/>
+      <c r="F86" s="196"/>
+      <c r="G86" s="196"/>
+      <c r="H86" s="196"/>
+      <c r="I86" s="196"/>
     </row>
     <row r="87" spans="1:9" ht="15">
-      <c r="A87" s="204"/>
-      <c r="B87" s="204"/>
-      <c r="C87" s="204"/>
-      <c r="D87" s="204"/>
-      <c r="E87" s="204"/>
-      <c r="F87" s="204"/>
-      <c r="G87" s="204"/>
-      <c r="H87" s="204"/>
-      <c r="I87" s="204"/>
+      <c r="A87" s="196"/>
+      <c r="B87" s="196"/>
+      <c r="C87" s="196"/>
+      <c r="D87" s="196"/>
+      <c r="E87" s="196"/>
+      <c r="F87" s="196"/>
+      <c r="G87" s="196"/>
+      <c r="H87" s="196"/>
+      <c r="I87" s="196"/>
     </row>
     <row r="88" spans="1:9" ht="15">
-      <c r="A88" s="204"/>
-      <c r="B88" s="204"/>
-      <c r="C88" s="204"/>
-      <c r="D88" s="204"/>
-      <c r="E88" s="204"/>
-      <c r="F88" s="204"/>
-      <c r="G88" s="204"/>
-      <c r="H88" s="204"/>
-      <c r="I88" s="204"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="196"/>
+      <c r="D88" s="196"/>
+      <c r="E88" s="196"/>
+      <c r="F88" s="196"/>
+      <c r="G88" s="196"/>
+      <c r="H88" s="196"/>
+      <c r="I88" s="196"/>
     </row>
     <row r="89" spans="1:9" ht="15">
-      <c r="A89" s="204"/>
-      <c r="B89" s="204"/>
-      <c r="C89" s="204"/>
-      <c r="D89" s="204"/>
-      <c r="E89" s="204"/>
-      <c r="F89" s="204"/>
-      <c r="G89" s="204"/>
-      <c r="H89" s="204"/>
-      <c r="I89" s="204"/>
+      <c r="A89" s="196"/>
+      <c r="B89" s="196"/>
+      <c r="C89" s="196"/>
+      <c r="D89" s="196"/>
+      <c r="E89" s="196"/>
+      <c r="F89" s="196"/>
+      <c r="G89" s="196"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -30650,7 +30649,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -30694,7 +30693,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D10" s="19">
         <v>4</v>
@@ -30703,7 +30702,7 @@
         <v>118</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -30860,7 +30859,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B20" s="46">
         <v>11</v>
@@ -30872,7 +30871,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>126</v>
@@ -30880,7 +30879,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B21" s="46">
         <v>12</v>
@@ -30922,7 +30921,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D23" s="24">
         <v>6</v>
@@ -30931,7 +30930,7 @@
         <v>130</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -31094,7 +31093,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B33" s="46">
         <v>24</v>
@@ -31126,10 +31125,10 @@
         <v>34</v>
       </c>
       <c r="E34" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>801</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -31244,8 +31243,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -31317,7 +31316,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -31329,7 +31328,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="D7" s="154"/>
     </row>
@@ -31589,7 +31588,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D22" s="46">
         <v>23</v>
@@ -31598,7 +31597,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="72" customFormat="1">
@@ -31849,7 +31848,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D36" s="46">
         <v>8</v>
@@ -31858,7 +31857,7 @@
         <v>103</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -32083,13 +32082,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="85" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="B49" s="86">
         <v>40</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D49" s="86">
         <v>22</v>
@@ -32098,7 +32097,7 @@
         <v>103</v>
       </c>
       <c r="F49" s="157" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -32199,7 +32198,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D55" s="24">
         <v>25</v>
@@ -32208,7 +32207,7 @@
         <v>103</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -32285,19 +32284,19 @@
         <v>34</v>
       </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="217" t="s">
-        <v>1098</v>
+      <c r="F59" s="209" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="195" t="s">
+      <c r="A61" s="211" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="195"/>
-      <c r="C61" s="195"/>
-      <c r="D61" s="195"/>
-      <c r="E61" s="195"/>
-      <c r="F61" s="195"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="211"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -32421,10 +32420,10 @@
         <v>40753</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -32432,10 +32431,10 @@
         <v>40925</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13" thickBot="1">
@@ -32478,16 +32477,16 @@
         <v>212</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D12" s="19">
         <v>12</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -32498,16 +32497,16 @@
         <v>215</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D13" s="24">
         <v>13</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -32524,7 +32523,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -32542,7 +32541,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -32614,7 +32613,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -32742,7 +32741,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F26" s="25"/>
     </row>
@@ -32760,7 +32759,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F27" s="25"/>
     </row>
@@ -32778,7 +32777,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F28" s="25"/>
     </row>
@@ -32796,7 +32795,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F29" s="25"/>
     </row>
@@ -32826,16 +32825,16 @@
         <v>258</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D31" s="24">
         <v>14</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -32846,16 +32845,16 @@
         <v>260</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D32" s="24">
         <v>32</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -32908,7 +32907,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -32944,7 +32943,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F37" s="25"/>
     </row>
@@ -32980,7 +32979,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -33018,7 +33017,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -33036,7 +33035,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F42" s="25"/>
     </row>
@@ -33066,16 +33065,16 @@
         <v>288</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D44" s="24">
         <v>33</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -33086,16 +33085,16 @@
         <v>290</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D45" s="24">
         <v>31</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -33164,7 +33163,7 @@
         <v>22</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F49" s="25"/>
     </row>
@@ -33182,7 +33181,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -33200,7 +33199,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F51" s="25"/>
     </row>
@@ -33218,7 +33217,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F52" s="29"/>
     </row>
@@ -33311,10 +33310,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3" s="108" t="s">
         <v>869</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>870</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -33363,7 +33362,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" thickBot="1">
@@ -33412,7 +33411,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F10" s="20"/>
     </row>
@@ -33430,7 +33429,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -33538,10 +33537,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="72" customFormat="1">
@@ -33581,7 +33580,7 @@
         <v>274</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -33600,10 +33599,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
@@ -33684,10 +33683,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="F24" s="48" t="s">
         <v>820</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>821</v>
       </c>
       <c r="G24" s="84"/>
       <c r="H24" s="84"/>
@@ -33706,10 +33705,10 @@
         <v>44</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G25" s="84"/>
       <c r="H25" s="84"/>
@@ -33788,7 +33787,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="84"/>
@@ -33808,7 +33807,7 @@
         <v>33</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="84"/>
@@ -33868,10 +33867,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G33" s="84"/>
       <c r="H33" s="84"/>
@@ -33910,10 +33909,10 @@
         <v>15</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G35" s="84"/>
       <c r="H35" s="84"/>
@@ -33952,10 +33951,10 @@
         <v>43</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -33975,7 +33974,7 @@
         <v>103</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -33992,10 +33991,10 @@
         <v>13</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -34048,7 +34047,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F42" s="25"/>
     </row>
@@ -34066,7 +34065,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -34138,10 +34137,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -34158,7 +34157,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>742</v>
@@ -34280,16 +34279,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="136" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -34323,7 +34322,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -34373,7 +34372,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F11" s="41"/>
     </row>
@@ -34391,7 +34390,7 @@
         <v>260</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F12" s="42"/>
     </row>
@@ -34409,7 +34408,7 @@
         <v>258</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -34539,7 +34538,7 @@
         <v>290</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F21" s="42"/>
     </row>
@@ -34557,7 +34556,7 @@
         <v>215</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F22" s="42"/>
     </row>
@@ -34575,7 +34574,7 @@
         <v>288</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F23" s="42"/>
     </row>
@@ -34752,16 +34751,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="111" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="136" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -34798,7 +34797,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" thickBot="1">
@@ -34847,7 +34846,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F11" s="41"/>
     </row>
@@ -34865,7 +34864,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F12" s="42"/>
     </row>
@@ -34883,7 +34882,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -35013,7 +35012,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F21" s="42"/>
     </row>
@@ -35031,7 +35030,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F22" s="42"/>
     </row>
@@ -35049,7 +35048,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F23" s="42"/>
     </row>
